--- a/data/trans_orig/CLASESOCIAL_Hogar_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_Hogar_R2-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>151680</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>132173</v>
+        <v>129265</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>174840</v>
+        <v>173384</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2596639318455285</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2262696015076248</v>
+        <v>0.221291247467665</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2993106601844325</v>
+        <v>0.2968187097169884</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>575</v>
@@ -765,19 +765,19 @@
         <v>598256</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>568158</v>
+        <v>566361</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>629418</v>
+        <v>626183</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6486333733716518</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.616000609467577</v>
+        <v>0.6140528224897793</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.682419380035398</v>
+        <v>0.6789126003415833</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>722</v>
@@ -786,19 +786,19 @@
         <v>749936</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>709060</v>
+        <v>711666</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>788226</v>
+        <v>786893</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4978089479912006</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.470675238290755</v>
+        <v>0.4724050516382957</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.523225520306555</v>
+        <v>0.5223409622962075</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>275225</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>251189</v>
+        <v>248869</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>297514</v>
+        <v>298277</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4711617678722735</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.430015118396073</v>
+        <v>0.4260426292921387</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5093183988838804</v>
+        <v>0.5106257921302083</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>169</v>
@@ -836,19 +836,19 @@
         <v>177362</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>154511</v>
+        <v>153903</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>205482</v>
+        <v>202441</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1922967980717176</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1675219748777856</v>
+        <v>0.1668622168053422</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.222785486833842</v>
+        <v>0.2194876796908422</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>440</v>
@@ -857,19 +857,19 @@
         <v>452587</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>418625</v>
+        <v>417776</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>488730</v>
+        <v>489594</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3004277830248916</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.277884024008876</v>
+        <v>0.2773203431806472</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3244198633458945</v>
+        <v>0.3249935144889625</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>80199</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>64310</v>
+        <v>64174</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>98249</v>
+        <v>99258</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1372934928490747</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1100935850929808</v>
+        <v>0.1098604805992212</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1681938861312531</v>
+        <v>0.1699208482692512</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>35</v>
@@ -907,19 +907,19 @@
         <v>35169</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25075</v>
+        <v>24720</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>48862</v>
+        <v>48068</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03813019365298899</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02718621341065999</v>
+        <v>0.02680109985144935</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05297685959871554</v>
+        <v>0.05211604567100012</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>116</v>
@@ -928,19 +928,19 @@
         <v>115368</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>97259</v>
+        <v>97540</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>137130</v>
+        <v>139781</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07658115155188842</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06456089910180794</v>
+        <v>0.06474731724836062</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09102690188219058</v>
+        <v>0.09278718321440305</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>45397</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33178</v>
+        <v>33395</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60266</v>
+        <v>58787</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07771506617701349</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05679787312952479</v>
+        <v>0.05716884373900286</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1031705508110613</v>
+        <v>0.1006388544526721</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -978,19 +978,19 @@
         <v>71049</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56430</v>
+        <v>55823</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>87867</v>
+        <v>88934</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07703201043002969</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06118161435500606</v>
+        <v>0.06052318227845913</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09526652948116508</v>
+        <v>0.09642308432037854</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>113</v>
@@ -999,19 +999,19 @@
         <v>116446</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>96530</v>
+        <v>95873</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>137518</v>
+        <v>137918</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07729686797291903</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06407687109767218</v>
+        <v>0.06364033005717874</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09128454494752963</v>
+        <v>0.09155038362333817</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>31640</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>21134</v>
+        <v>22189</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>43081</v>
+        <v>43953</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05416574125610987</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03617970930287232</v>
+        <v>0.03798541423023861</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07375153586988614</v>
+        <v>0.07524415717236702</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>38</v>
@@ -1049,19 +1049,19 @@
         <v>40497</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28590</v>
+        <v>29451</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>55178</v>
+        <v>54576</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04390762447361186</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03099768333587366</v>
+        <v>0.03193069325528422</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05982488552918708</v>
+        <v>0.05917167668357139</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>68</v>
@@ -1070,19 +1070,19 @@
         <v>72138</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>56979</v>
+        <v>56892</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>90327</v>
+        <v>91021</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04788524945910039</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03782287502050423</v>
+        <v>0.03776513819907281</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05995945019450519</v>
+        <v>0.06041967372212568</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>212623</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>186760</v>
+        <v>185686</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>238492</v>
+        <v>239961</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1976563040005044</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1736134797166234</v>
+        <v>0.1726154941457523</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2217041046738107</v>
+        <v>0.2230692866314232</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>580</v>
@@ -1195,19 +1195,19 @@
         <v>593927</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>562778</v>
+        <v>563024</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>625047</v>
+        <v>626159</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5616124458772686</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5321584942940643</v>
+        <v>0.5323914431527382</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5910397077763118</v>
+        <v>0.5920910659196154</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>787</v>
@@ -1216,19 +1216,19 @@
         <v>806550</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>756232</v>
+        <v>760542</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>851813</v>
+        <v>851116</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3780831530240089</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3544960706213008</v>
+        <v>0.3565161512981456</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3993009954541241</v>
+        <v>0.3989743902049416</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>475407</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>443171</v>
+        <v>442906</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>507710</v>
+        <v>510763</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.44194215765232</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4119750055490969</v>
+        <v>0.4117293735536065</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4719718300767165</v>
+        <v>0.4748099009439907</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>248</v>
@@ -1266,19 +1266,19 @@
         <v>257067</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>228714</v>
+        <v>231961</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>283288</v>
+        <v>283669</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2430806389537011</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2162700274147453</v>
+        <v>0.2193410311364704</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.26787533469245</v>
+        <v>0.2682352181863331</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>719</v>
@@ -1287,19 +1287,19 @@
         <v>732474</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>689272</v>
+        <v>687237</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>777062</v>
+        <v>775509</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3433589684092339</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3231072561399165</v>
+        <v>0.3221535752377456</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3642605192565057</v>
+        <v>0.3635322997487399</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>196883</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>171550</v>
+        <v>170417</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>220891</v>
+        <v>222577</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1830242972838798</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.159474634332923</v>
+        <v>0.1584207735368883</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2053423817633723</v>
+        <v>0.2069097101342586</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>58</v>
@@ -1337,19 +1337,19 @@
         <v>59256</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>45483</v>
+        <v>45890</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>74958</v>
+        <v>75161</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05603239253423429</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04300846427949671</v>
+        <v>0.04339368659115372</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07088005390385965</v>
+        <v>0.07107196562231265</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>253</v>
@@ -1358,19 +1358,19 @@
         <v>256140</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>225741</v>
+        <v>226337</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>284456</v>
+        <v>286502</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1200695986564011</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1058195306364745</v>
+        <v>0.1060991117763987</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1333432578822668</v>
+        <v>0.1343024491003135</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>99806</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80549</v>
+        <v>83616</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>121943</v>
+        <v>121648</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09278048045326474</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0748789637820705</v>
+        <v>0.07773032820418435</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1133588481796748</v>
+        <v>0.1130853848879624</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -1408,19 +1408,19 @@
         <v>97861</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>81057</v>
+        <v>80451</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>118877</v>
+        <v>117397</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09253669729616322</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07664726090606555</v>
+        <v>0.07607390083430741</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1124091118663479</v>
+        <v>0.1110094589762848</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>191</v>
@@ -1429,19 +1429,19 @@
         <v>197667</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>170790</v>
+        <v>170447</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>224511</v>
+        <v>224187</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09265962790588357</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08006049949881616</v>
+        <v>0.07989994087220235</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1052433501005411</v>
+        <v>0.1050914787646086</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>91003</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>73423</v>
+        <v>74098</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>112428</v>
+        <v>113396</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0845967606100311</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06825467733830844</v>
+        <v>0.06888236546539199</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1045142629562193</v>
+        <v>0.1054139764482706</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -1479,19 +1479,19 @@
         <v>49427</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37986</v>
+        <v>36423</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>65627</v>
+        <v>64470</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04673782533863286</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03591948761142231</v>
+        <v>0.03444132464011737</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06205673143464704</v>
+        <v>0.06096260983002411</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>131</v>
@@ -1500,19 +1500,19 @@
         <v>140430</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>120273</v>
+        <v>116882</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>168768</v>
+        <v>166756</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06582865200447252</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05637969630804429</v>
+        <v>0.05479008995191832</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07911270828685651</v>
+        <v>0.07816942168428151</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>203821</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>180229</v>
+        <v>181522</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>232707</v>
+        <v>229934</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1821669371666023</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1610813635123174</v>
+        <v>0.1622365963054772</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2079834245608696</v>
+        <v>0.2055049465827728</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>476</v>
@@ -1625,19 +1625,19 @@
         <v>478887</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>447754</v>
+        <v>447495</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>511047</v>
+        <v>510261</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4823284256917209</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4509717087912691</v>
+        <v>0.4507105666296096</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5147191672649246</v>
+        <v>0.5139274538063949</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>686</v>
@@ -1646,19 +1646,19 @@
         <v>682709</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>646519</v>
+        <v>637375</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>730879</v>
+        <v>725567</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3232925688555618</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.306154969998244</v>
+        <v>0.3018249688352675</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3461034337113704</v>
+        <v>0.3435879768014699</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>368561</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>335921</v>
+        <v>333618</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>402639</v>
+        <v>397473</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3294047712514107</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3002316891448501</v>
+        <v>0.2981734032284551</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.35986142201674</v>
+        <v>0.3552445331812724</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>200</v>
@@ -1696,19 +1696,19 @@
         <v>201532</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176974</v>
+        <v>178527</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>227288</v>
+        <v>228356</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2029798961045397</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1782455450849721</v>
+        <v>0.1798097529373125</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2289213650736411</v>
+        <v>0.2299972511221302</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>565</v>
@@ -1717,19 +1717,19 @@
         <v>570093</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>528872</v>
+        <v>530284</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>610932</v>
+        <v>610490</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2699641333002601</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2504442794035157</v>
+        <v>0.2511127235596889</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2893031806224408</v>
+        <v>0.2890938849421213</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>201454</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>178702</v>
+        <v>175139</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>228718</v>
+        <v>229560</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1800507460652568</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1597162758887717</v>
+        <v>0.15653157757218</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2044187140580409</v>
+        <v>0.205170697210057</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>46</v>
@@ -1767,19 +1767,19 @@
         <v>47655</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>35578</v>
+        <v>35497</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>62806</v>
+        <v>61971</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04799772142074413</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0358341401039204</v>
+        <v>0.03575211617155768</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06325746521352274</v>
+        <v>0.0624157911640615</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>239</v>
@@ -1788,19 +1788,19 @@
         <v>249109</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>217896</v>
+        <v>219975</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>280861</v>
+        <v>279192</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1179639453535291</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.103183458924985</v>
+        <v>0.1041677007155357</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.132999772918402</v>
+        <v>0.1322096591704285</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>152407</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>131354</v>
+        <v>130995</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>175622</v>
+        <v>178686</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1362153173516487</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.117398486625857</v>
+        <v>0.1170775964683931</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.156963835305113</v>
+        <v>0.1597024631397809</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>133</v>
@@ -1838,19 +1838,19 @@
         <v>136870</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>115224</v>
+        <v>116768</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>161032</v>
+        <v>157290</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1378535078011508</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1160523768891329</v>
+        <v>0.1176073784767397</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1621894875970865</v>
+        <v>0.1584200531318229</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>276</v>
@@ -1859,19 +1859,19 @@
         <v>289277</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>258518</v>
+        <v>260222</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>320221</v>
+        <v>323052</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1369855382855493</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1224194753618924</v>
+        <v>0.1232266081927465</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1516388704626222</v>
+        <v>0.1529791258124445</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>192627</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>166401</v>
+        <v>169959</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>217748</v>
+        <v>221617</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1721622281650816</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1487218300705296</v>
+        <v>0.1519019338325703</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1946143496799967</v>
+        <v>0.1980718440943174</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>126</v>
@@ -1909,19 +1909,19 @@
         <v>127921</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>109152</v>
+        <v>108042</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>151713</v>
+        <v>150249</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1288404489818444</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1099360831941447</v>
+        <v>0.1088186101711078</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1528034377868517</v>
+        <v>0.1513283985537452</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>314</v>
@@ -1930,19 +1930,19 @@
         <v>320549</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>289201</v>
+        <v>287676</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>353279</v>
+        <v>355506</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1517938142050997</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1369495083833901</v>
+        <v>0.1362269759663493</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1672928515525406</v>
+        <v>0.168347721244642</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>71835</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>57384</v>
+        <v>56814</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>88184</v>
+        <v>87047</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1611593578287155</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1287373508305891</v>
+        <v>0.1274597841882926</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.197837216899548</v>
+        <v>0.1952850032258126</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>117</v>
@@ -2055,19 +2055,19 @@
         <v>116850</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>99298</v>
+        <v>99163</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>134683</v>
+        <v>134394</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3425097911062875</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2910618358141238</v>
+        <v>0.2906647667155013</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3947814227914818</v>
+        <v>0.3939357772805139</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>190</v>
@@ -2076,19 +2076,19 @@
         <v>188685</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>166822</v>
+        <v>167614</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>211653</v>
+        <v>213514</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2397833376760083</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2119987683496015</v>
+        <v>0.21300561816382</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2689704588803641</v>
+        <v>0.2713361942007578</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>102626</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>87412</v>
+        <v>84978</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>123639</v>
+        <v>123223</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2302361432415551</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1961041911364447</v>
+        <v>0.1906438187882098</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.277377511850368</v>
+        <v>0.2764456089041663</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>56</v>
@@ -2126,19 +2126,19 @@
         <v>56504</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>44652</v>
+        <v>44131</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>72737</v>
+        <v>72326</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1656252617732709</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1308836639902987</v>
+        <v>0.1293562435881501</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2132070004899296</v>
+        <v>0.2120021646785476</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>155</v>
@@ -2147,19 +2147,19 @@
         <v>159130</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>139110</v>
+        <v>137421</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>184209</v>
+        <v>183639</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2022242738973948</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.17678201954662</v>
+        <v>0.174636593412971</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.234094299054405</v>
+        <v>0.2333710559656285</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>55072</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>41809</v>
+        <v>40574</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>70393</v>
+        <v>70594</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1235513366947719</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09379590745548702</v>
+        <v>0.09102662138095516</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1579239425001822</v>
+        <v>0.1583739339003158</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -2197,19 +2197,19 @@
         <v>22772</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14625</v>
+        <v>14538</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>34551</v>
+        <v>33871</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06674990368155197</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04286989378817041</v>
+        <v>0.04261241519974898</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.101274358505009</v>
+        <v>0.09928239340199516</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>76</v>
@@ -2218,19 +2218,19 @@
         <v>77844</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>62125</v>
+        <v>62095</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>96053</v>
+        <v>95876</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09892523217538962</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07894861357305318</v>
+        <v>0.0789105146050514</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1220658120273797</v>
+        <v>0.1218403537721104</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>63600</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>49639</v>
+        <v>50476</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>80924</v>
+        <v>80603</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1426830576943234</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1113637697210115</v>
+        <v>0.1132405772860964</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1815489760643078</v>
+        <v>0.1808293876532056</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>61</v>
@@ -2268,19 +2268,19 @@
         <v>60335</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46373</v>
+        <v>47904</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>73306</v>
+        <v>75274</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1768532378162681</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1359291108835448</v>
+        <v>0.1404151342714614</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.21487477531088</v>
+        <v>0.2206411917972051</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>122</v>
@@ -2289,19 +2289,19 @@
         <v>123935</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>105077</v>
+        <v>104676</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>148040</v>
+        <v>144798</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1574974449815822</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1335325735881345</v>
+        <v>0.1330239337486759</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1881313529235543</v>
+        <v>0.1840105375213735</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>152608</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>132815</v>
+        <v>132402</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>175315</v>
+        <v>174342</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3423701045406342</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2979634730617562</v>
+        <v>0.2970369514939082</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3933109546936637</v>
+        <v>0.3911282199252513</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>83</v>
@@ -2339,19 +2339,19 @@
         <v>84697</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>70001</v>
+        <v>69340</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>100849</v>
+        <v>101982</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2482618056226215</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2051856244088643</v>
+        <v>0.2032479055435989</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2956071617236977</v>
+        <v>0.2989280703836818</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>231</v>
@@ -2360,19 +2360,19 @@
         <v>237305</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>210810</v>
+        <v>213649</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>261457</v>
+        <v>265177</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3015697112696251</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2679000871196023</v>
+        <v>0.2715070099775078</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3322627066872385</v>
+        <v>0.3369904406900978</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>639960</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>597021</v>
+        <v>599090</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>687736</v>
+        <v>685372</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1984695895591194</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1851528867681977</v>
+        <v>0.1857943839516856</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2132860109879064</v>
+        <v>0.2125530901923902</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1748</v>
@@ -2485,19 +2485,19 @@
         <v>1787920</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1725513</v>
+        <v>1731236</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1842889</v>
+        <v>1843903</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5395221871978221</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5206901894338561</v>
+        <v>0.5224174152318755</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5561095475792824</v>
+        <v>0.5564154983553677</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2385</v>
@@ -2506,19 +2506,19 @@
         <v>2427880</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2344947</v>
+        <v>2355269</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2506152</v>
+        <v>2504745</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3713280266996172</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3586438674757669</v>
+        <v>0.3602226054102637</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3832990824569006</v>
+        <v>0.3830839556205923</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>1221819</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1171691</v>
+        <v>1166978</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1280055</v>
+        <v>1276113</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3789202696061748</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.363373954672935</v>
+        <v>0.3619124166102579</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3969807750227889</v>
+        <v>0.3957581896995943</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>673</v>
@@ -2556,19 +2556,19 @@
         <v>692465</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>648489</v>
+        <v>644946</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>742982</v>
+        <v>736594</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2089580089644336</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1956879081945485</v>
+        <v>0.1946187993841834</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2242020555279866</v>
+        <v>0.2222742862231525</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1879</v>
@@ -2577,19 +2577,19 @@
         <v>1914284</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1839837</v>
+        <v>1844526</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1988072</v>
+        <v>1987169</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2927769270519548</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2813908079237945</v>
+        <v>0.2821079191567579</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3040623540778498</v>
+        <v>0.3039241442744677</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>533608</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>495569</v>
+        <v>489925</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>574251</v>
+        <v>577986</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1654866149706248</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.153689696082259</v>
+        <v>0.1519395285094155</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1780911667892553</v>
+        <v>0.1792495951865056</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>161</v>
@@ -2627,19 +2627,19 @@
         <v>164853</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>140600</v>
+        <v>140124</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>191223</v>
+        <v>190139</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04974589957910736</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04242731367717201</v>
+        <v>0.04228364639613547</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05770324656481506</v>
+        <v>0.05737626068798335</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>684</v>
@@ -2648,19 +2648,19 @@
         <v>698460</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>650860</v>
+        <v>650811</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>750292</v>
+        <v>745864</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1068248152522857</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09954469872920188</v>
+        <v>0.09953715422765096</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1147522029246935</v>
+        <v>0.1140749073276743</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>361210</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>325508</v>
+        <v>322307</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>403815</v>
+        <v>396344</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1120212163231393</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1009492433336109</v>
+        <v>0.09995651345542995</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.125234371449798</v>
+        <v>0.1229172266857848</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>357</v>
@@ -2698,19 +2698,19 @@
         <v>366115</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>330328</v>
+        <v>331414</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>406012</v>
+        <v>403574</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1104788221853697</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09967981413619056</v>
+        <v>0.100007342061554</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1225181556976323</v>
+        <v>0.1217823693502594</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>702</v>
@@ -2719,19 +2719,19 @@
         <v>727325</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>678468</v>
+        <v>674216</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>781539</v>
+        <v>782617</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1112394722697134</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.103767110135737</v>
+        <v>0.1031167823645646</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1195311178917528</v>
+        <v>0.119695968433875</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>467879</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>426151</v>
+        <v>429548</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>508714</v>
+        <v>513493</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1451023095409418</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1321613467500933</v>
+        <v>0.1332147789386384</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1577662559355093</v>
+        <v>0.1592485181141436</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>294</v>
@@ -2769,19 +2769,19 @@
         <v>302542</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>267582</v>
+        <v>271833</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>334898</v>
+        <v>336173</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09129508207326724</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08074540301121085</v>
+        <v>0.08202814720758207</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1010587987643474</v>
+        <v>0.1014434046000714</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>744</v>
@@ -2790,19 +2790,19 @@
         <v>770421</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>717548</v>
+        <v>716569</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>826368</v>
+        <v>828496</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.117830758726429</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1097440818236029</v>
+        <v>0.1095944506634946</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1263874780518727</v>
+        <v>0.1267128378036002</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>265097</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>237704</v>
+        <v>236507</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>290695</v>
+        <v>295126</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2546595240575155</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2283454713827122</v>
+        <v>0.2271953986096281</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2792496132348852</v>
+        <v>0.2835068268310639</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>612</v>
@@ -3155,19 +3155,19 @@
         <v>659671</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>623228</v>
+        <v>626497</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>695621</v>
+        <v>695723</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5906047972361552</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5579771638784032</v>
+        <v>0.5609037973202183</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6227905115950645</v>
+        <v>0.6228818288481294</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>865</v>
@@ -3176,19 +3176,19 @@
         <v>924768</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>878581</v>
+        <v>879004</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>970051</v>
+        <v>974584</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4285446639246625</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4071412619563531</v>
+        <v>0.4073375953192442</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4495295071784406</v>
+        <v>0.4516299593348991</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>441776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>410841</v>
+        <v>408256</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>473950</v>
+        <v>476086</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4243822401858393</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3946655092996246</v>
+        <v>0.3921828710660899</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4552899276718517</v>
+        <v>0.4573419708229982</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>254</v>
@@ -3226,19 +3226,19 @@
         <v>278835</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>249297</v>
+        <v>248711</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>307767</v>
+        <v>311042</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2496410030418864</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2231958729092807</v>
+        <v>0.2226713973263589</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2755443651156733</v>
+        <v>0.2784765691612671</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>666</v>
@@ -3247,19 +3247,19 @@
         <v>720610</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>676919</v>
+        <v>671633</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>765752</v>
+        <v>763656</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3339362452955427</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3136893983912917</v>
+        <v>0.3112401783658211</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3548553790375314</v>
+        <v>0.3538844320446888</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>212739</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>188907</v>
+        <v>188452</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>241887</v>
+        <v>242042</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2043632802275195</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1814693327132512</v>
+        <v>0.1810320800027153</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2323639474795837</v>
+        <v>0.232512221082192</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>70</v>
@@ -3297,19 +3297,19 @@
         <v>74101</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>59481</v>
+        <v>58617</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>93503</v>
+        <v>90952</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0663429118269775</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05325382761669367</v>
+        <v>0.05248015118514743</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0837137204476664</v>
+        <v>0.08142939310657714</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>271</v>
@@ -3318,19 +3318,19 @@
         <v>286840</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>254938</v>
+        <v>255956</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>321559</v>
+        <v>319718</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1329239924031556</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1181402349238966</v>
+        <v>0.1186122063389536</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1490130482396103</v>
+        <v>0.1481597217536146</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>57248</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42877</v>
+        <v>42606</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>76033</v>
+        <v>74579</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05499374398547075</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04118839655105178</v>
+        <v>0.04092886497842378</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07303910612850414</v>
+        <v>0.07164318926333903</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -3368,19 +3368,19 @@
         <v>58602</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44353</v>
+        <v>45515</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75787</v>
+        <v>74809</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05246610103720668</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03970974520192809</v>
+        <v>0.04074922145431629</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06785252655126953</v>
+        <v>0.06697663189753959</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>105</v>
@@ -3389,19 +3389,19 @@
         <v>115849</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>94268</v>
+        <v>95013</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>138528</v>
+        <v>140150</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05368543700012617</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0436845232387855</v>
+        <v>0.04402973156092792</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06419501023679355</v>
+        <v>0.06494682742757507</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>64126</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>47719</v>
+        <v>49557</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>81689</v>
+        <v>83344</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06160121154365495</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0458399784871372</v>
+        <v>0.04760562943751594</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07847283254333942</v>
+        <v>0.08006238249231828</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -3439,19 +3439,19 @@
         <v>45733</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34186</v>
+        <v>33149</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>62983</v>
+        <v>61934</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0409451868577742</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03060650101531856</v>
+        <v>0.02967826245399729</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05638853120346771</v>
+        <v>0.05544980252945595</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>97</v>
@@ -3460,19 +3460,19 @@
         <v>109859</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>89848</v>
+        <v>91638</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>133816</v>
+        <v>136218</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05090966137651305</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04163618364981139</v>
+        <v>0.04246589443775483</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06201150270887034</v>
+        <v>0.06312428836443884</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>243502</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>217525</v>
+        <v>218106</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>271914</v>
+        <v>271153</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2494590543585606</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2228467425685229</v>
+        <v>0.2234415913275887</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2785665864642786</v>
+        <v>0.2777872867180058</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>578</v>
@@ -3585,19 +3585,19 @@
         <v>616898</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>583728</v>
+        <v>585303</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>652301</v>
+        <v>649319</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5648812964858143</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5345082220349409</v>
+        <v>0.5359500816671843</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5972990122076397</v>
+        <v>0.5945682889129319</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>812</v>
@@ -3606,19 +3606,19 @@
         <v>860399</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>816238</v>
+        <v>812994</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>907488</v>
+        <v>902837</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4160131073621939</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3946607170778479</v>
+        <v>0.3930922975486316</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4387813375492118</v>
+        <v>0.4365321187122964</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>368436</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>338831</v>
+        <v>336922</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>397711</v>
+        <v>398637</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3774499665906385</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3471209244614161</v>
+        <v>0.3451649435350156</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4074413834382909</v>
+        <v>0.4083901960810369</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>214</v>
@@ -3656,19 +3656,19 @@
         <v>229161</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>204217</v>
+        <v>201395</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>257881</v>
+        <v>256648</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2098380840361751</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1869972469415239</v>
+        <v>0.1844130824746186</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2361361600342091</v>
+        <v>0.2350073149217265</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>562</v>
@@ -3677,19 +3677,19 @@
         <v>597597</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>555543</v>
+        <v>561075</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>637614</v>
+        <v>643424</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2889449893171834</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2686114859039012</v>
+        <v>0.2712861943143923</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3082939806658082</v>
+        <v>0.3111030053089051</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>179954</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>156807</v>
+        <v>154483</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>205895</v>
+        <v>205963</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1843570121719174</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1606437298124054</v>
+        <v>0.1582625349106692</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.210931811216974</v>
+        <v>0.2110016815020069</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>74</v>
@@ -3727,19 +3727,19 @@
         <v>79045</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>63883</v>
+        <v>63071</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>101324</v>
+        <v>97853</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07238010085560188</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05849662481492406</v>
+        <v>0.05775245914453088</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09278039308776349</v>
+        <v>0.08960236809129682</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>241</v>
@@ -3748,19 +3748,19 @@
         <v>258999</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>230067</v>
+        <v>229577</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>294074</v>
+        <v>290432</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1252292591739645</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1112402137867638</v>
+        <v>0.111003149302627</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1421880192865555</v>
+        <v>0.1404272816108769</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>105915</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87038</v>
+        <v>87937</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>128050</v>
+        <v>127897</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1085061195039225</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0891670644724198</v>
+        <v>0.09008795082476444</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1311826537956018</v>
+        <v>0.1310258022658757</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>91</v>
@@ -3798,19 +3798,19 @@
         <v>100491</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>81869</v>
+        <v>81093</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>122816</v>
+        <v>122244</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09201720371765471</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07496553411052417</v>
+        <v>0.07425547514710343</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1124599068308424</v>
+        <v>0.1119364961826783</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>191</v>
@@ -3819,19 +3819,19 @@
         <v>206405</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>182109</v>
+        <v>179503</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>237805</v>
+        <v>236185</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09979939122973021</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08805179965031214</v>
+        <v>0.08679160217126843</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1149816359807861</v>
+        <v>0.1141983683004226</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>78312</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62216</v>
+        <v>61609</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>99218</v>
+        <v>97807</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.080227847374961</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06373773591873987</v>
+        <v>0.06311578748510142</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.10164588688124</v>
+        <v>0.1001993723650355</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>61</v>
@@ -3869,19 +3869,19 @@
         <v>66490</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51730</v>
+        <v>51590</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>83610</v>
+        <v>84852</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06088331490475399</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04736831593632686</v>
+        <v>0.04724001942809218</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07655990889600817</v>
+        <v>0.07769690364746268</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>135</v>
@@ -3890,19 +3890,19 @@
         <v>144802</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>123098</v>
+        <v>122748</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>171471</v>
+        <v>173053</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07001325291692807</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05951937430840482</v>
+        <v>0.05935000452617031</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08290817938804527</v>
+        <v>0.08367318547251346</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>183393</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>159468</v>
+        <v>160056</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>209931</v>
+        <v>208176</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2074224818500016</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1803630221073847</v>
+        <v>0.1810273677046585</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2374382910937783</v>
+        <v>0.2354529375968356</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>396</v>
@@ -4015,19 +4015,19 @@
         <v>419876</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>387578</v>
+        <v>392471</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>448478</v>
+        <v>453331</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.48108070732449</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4440748901861833</v>
+        <v>0.4496812674252558</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5138513624266481</v>
+        <v>0.5194117119098381</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>576</v>
@@ -4036,19 +4036,19 @@
         <v>603269</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>561785</v>
+        <v>565803</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>643256</v>
+        <v>651429</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3433658203527745</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3197540760522463</v>
+        <v>0.3220409914332463</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3661253382224395</v>
+        <v>0.3707772137616693</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>244972</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>217753</v>
+        <v>220936</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>278524</v>
+        <v>276392</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2770699725563828</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2462844866866377</v>
+        <v>0.2498848141355358</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3150187263225875</v>
+        <v>0.3126072181193038</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>169</v>
@@ -4086,19 +4086,19 @@
         <v>179113</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>156814</v>
+        <v>154671</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>207129</v>
+        <v>203672</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2052216517800714</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1796729853762172</v>
+        <v>0.17721762730079</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2373220355620415</v>
+        <v>0.2333603506076412</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>395</v>
@@ -4107,19 +4107,19 @@
         <v>424084</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>386548</v>
+        <v>388329</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>459648</v>
+        <v>464580</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2413783701014789</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2200134161929199</v>
+        <v>0.2210274359720138</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2616204623092496</v>
+        <v>0.2644274863760864</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>157306</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>134191</v>
+        <v>135461</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>182272</v>
+        <v>181724</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1779177120291497</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1517740769112828</v>
+        <v>0.1532106411445641</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.206154603198289</v>
+        <v>0.2055349441794667</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>69</v>
@@ -4157,19 +4157,19 @@
         <v>72941</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>57660</v>
+        <v>56821</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>90894</v>
+        <v>91363</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08357338704972053</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06606458590622433</v>
+        <v>0.06510339804108231</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1041438675423429</v>
+        <v>0.1046812886222025</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>217</v>
@@ -4178,19 +4178,19 @@
         <v>230247</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>201562</v>
+        <v>202673</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>260295</v>
+        <v>261089</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1310509223163377</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1147238540018932</v>
+        <v>0.1153564935775325</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1481534224953812</v>
+        <v>0.1486055247992671</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>152608</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>129958</v>
+        <v>129367</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>178536</v>
+        <v>177989</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1726038664074059</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1469857567046645</v>
+        <v>0.1463177355338783</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2019293392424689</v>
+        <v>0.201311027828671</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>87</v>
@@ -4228,19 +4228,19 @@
         <v>94641</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>75641</v>
+        <v>77241</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>115401</v>
+        <v>116544</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1084371541977253</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08666734205678241</v>
+        <v>0.08850073327680785</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.132222930560765</v>
+        <v>0.1335328309618103</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>224</v>
@@ -4249,19 +4249,19 @@
         <v>247249</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>219293</v>
+        <v>214604</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>279720</v>
+        <v>278907</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1407282044812716</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1248164233234225</v>
+        <v>0.1221473418044715</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1592094888959323</v>
+        <v>0.1587470721792294</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>145873</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>123522</v>
+        <v>122583</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>169776</v>
+        <v>167571</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.16498596715706</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1397071374068959</v>
+        <v>0.1386443928255742</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1920209647617473</v>
+        <v>0.189528040026376</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>97</v>
@@ -4299,19 +4299,19 @@
         <v>106206</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>88403</v>
+        <v>87932</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>128160</v>
+        <v>127555</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1216870996479927</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1012892216562677</v>
+        <v>0.1007492562454699</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.146841207396376</v>
+        <v>0.1461482173235379</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>235</v>
@@ -4320,19 +4320,19 @@
         <v>252078</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>224695</v>
+        <v>222013</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>283874</v>
+        <v>283721</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1434766827481374</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1278905669721967</v>
+        <v>0.1263643809376116</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1615742914347917</v>
+        <v>0.1614869061823649</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>82601</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>68246</v>
+        <v>67135</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>101181</v>
+        <v>100987</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1642099097934841</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1356708557629539</v>
+        <v>0.133463650075334</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2011455833889572</v>
+        <v>0.2007609492061752</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>152</v>
@@ -4445,19 +4445,19 @@
         <v>164584</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>144097</v>
+        <v>146386</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>186925</v>
+        <v>188872</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3635328038249895</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3182804122250524</v>
+        <v>0.3233356660973111</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4128785926163402</v>
+        <v>0.4171798172579564</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>234</v>
@@ -4466,19 +4466,19 @@
         <v>247185</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>223769</v>
+        <v>222742</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>277131</v>
+        <v>279066</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2586276845958231</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2341275447350368</v>
+        <v>0.2330526291514785</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2899589839475146</v>
+        <v>0.2919838328652476</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>98363</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>80128</v>
+        <v>80244</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>117325</v>
+        <v>116936</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1955433437080781</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.159292284604531</v>
+        <v>0.1595244785355791</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2332406869445464</v>
+        <v>0.232467118472662</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>72</v>
@@ -4516,19 +4516,19 @@
         <v>77627</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>61988</v>
+        <v>62437</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>96628</v>
+        <v>95725</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.171461873364255</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1369193179349527</v>
+        <v>0.1379104675997685</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2134322100399393</v>
+        <v>0.2114360246428087</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>164</v>
@@ -4537,19 +4537,19 @@
         <v>175990</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>152086</v>
+        <v>150724</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>201943</v>
+        <v>201439</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1841361300265784</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1591262294285763</v>
+        <v>0.1577006835390194</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2112911663542703</v>
+        <v>0.2107634464733308</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>78394</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>63405</v>
+        <v>62196</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>96214</v>
+        <v>97513</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1558447831192317</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1260484993904101</v>
+        <v>0.123644919001729</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1912720189185952</v>
+        <v>0.1938539573995856</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>30</v>
@@ -4587,19 +4587,19 @@
         <v>32176</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>21554</v>
+        <v>23020</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>44773</v>
+        <v>44973</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07107006214269911</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04760748520435886</v>
+        <v>0.05084535476007247</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09889394565445947</v>
+        <v>0.09933651039339438</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>104</v>
@@ -4608,19 +4608,19 @@
         <v>110569</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>90744</v>
+        <v>90842</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>132110</v>
+        <v>133325</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1156876272993477</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09494405839616703</v>
+        <v>0.09504713147833696</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1382255045093668</v>
+        <v>0.1394966763364555</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>97955</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>79191</v>
+        <v>81419</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>117998</v>
+        <v>119697</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1947334362601317</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.157429340815672</v>
+        <v>0.1618585518085464</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2345786706467721</v>
+        <v>0.2379559576972033</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>74</v>
@@ -4658,19 +4658,19 @@
         <v>83342</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>65305</v>
+        <v>66666</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>102582</v>
+        <v>103452</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1840862507016787</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1442458561409146</v>
+        <v>0.1472517166248793</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2265819448896798</v>
+        <v>0.228504503053088</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>155</v>
@@ -4679,19 +4679,19 @@
         <v>181298</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>157268</v>
+        <v>154179</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>210112</v>
+        <v>207512</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1896899435232771</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1645482366231005</v>
+        <v>0.1613162229729021</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2198382573871314</v>
+        <v>0.2171173759151184</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>145710</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>124232</v>
+        <v>123300</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>167181</v>
+        <v>165788</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2896685271190744</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2469714427193734</v>
+        <v>0.2451184580062226</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3323531810678889</v>
+        <v>0.3295827874797827</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>84</v>
@@ -4729,19 +4729,19 @@
         <v>95006</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>78023</v>
+        <v>77964</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>114685</v>
+        <v>113689</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2098490099663776</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1723362720403048</v>
+        <v>0.1722067291341583</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2533146184307025</v>
+        <v>0.2511162446047999</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>216</v>
@@ -4750,19 +4750,19 @@
         <v>240716</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>214714</v>
+        <v>213728</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>269113</v>
+        <v>273528</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2518586145549735</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.22465260882521</v>
+        <v>0.2236215563050899</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2815703878198592</v>
+        <v>0.2861900938976193</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>774592</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>729079</v>
+        <v>721274</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>825578</v>
+        <v>825265</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2275350707563601</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2141655584988068</v>
+        <v>0.2118730734687284</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2425121484694783</v>
+        <v>0.2424201942997658</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1738</v>
@@ -4875,19 +4875,19 @@
         <v>1861029</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1797344</v>
+        <v>1792036</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1919716</v>
+        <v>1919768</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5265268667457252</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5085089680433368</v>
+        <v>0.5070072548113339</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5431308077312821</v>
+        <v>0.5431455088853602</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2487</v>
@@ -4896,19 +4896,19 @@
         <v>2635621</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2558252</v>
+        <v>2551361</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2718273</v>
+        <v>2715207</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3798374391889032</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3686871477619212</v>
+        <v>0.3676940942525495</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3917488831129831</v>
+        <v>0.3913070480145</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>1153545</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1099263</v>
+        <v>1096865</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1208811</v>
+        <v>1216278</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3388519237022865</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3229064375417351</v>
+        <v>0.3222020965989026</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3550862107450211</v>
+        <v>0.357279471224374</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>709</v>
@@ -4946,19 +4946,19 @@
         <v>764735</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>715514</v>
+        <v>714687</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>813733</v>
+        <v>822358</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2163606214643348</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2024348865212893</v>
+        <v>0.2022008486419366</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2302234362048632</v>
+        <v>0.2326635107193225</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1787</v>
@@ -4967,19 +4967,19 @@
         <v>1918280</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1837896</v>
+        <v>1848345</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1991863</v>
+        <v>1999028</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2764565145523643</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2648717655768241</v>
+        <v>0.2663776826720334</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2870609802159234</v>
+        <v>0.2880935664976144</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>628393</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>578345</v>
+        <v>581641</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>675557</v>
+        <v>676228</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1845892522780858</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1698879222726282</v>
+        <v>0.1708560720195239</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1984437222958305</v>
+        <v>0.1986407095035763</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>243</v>
@@ -5017,19 +5017,19 @@
         <v>258263</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>228382</v>
+        <v>228666</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>290931</v>
+        <v>289482</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07306843790227145</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0646143852623447</v>
+        <v>0.06469481800112102</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08231083615089602</v>
+        <v>0.08190089896366599</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>833</v>
@@ -5038,19 +5038,19 @@
         <v>886656</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>829269</v>
+        <v>830465</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>939096</v>
+        <v>949511</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1277820609544594</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1195115678252485</v>
+        <v>0.1196840397396281</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1353395555511586</v>
+        <v>0.1368405055099825</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>413726</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>374626</v>
+        <v>374602</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>458906</v>
+        <v>458955</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1215311480946799</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1100456023424133</v>
+        <v>0.1100386017961575</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1348027763965655</v>
+        <v>0.1348173288472649</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>304</v>
@@ -5088,19 +5088,19 @@
         <v>337076</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>302149</v>
+        <v>300948</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>378823</v>
+        <v>374826</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09536632631525019</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08548468672887891</v>
+        <v>0.08514482751679175</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1071774738690865</v>
+        <v>0.1060467303517509</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>675</v>
@@ -5109,19 +5109,19 @@
         <v>750801</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>699489</v>
+        <v>699042</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>806321</v>
+        <v>808237</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1082031425103251</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1008081563056588</v>
+        <v>0.1007437091159827</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1162044734861862</v>
+        <v>0.1164806151021766</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>434020</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>395645</v>
+        <v>395048</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>480303</v>
+        <v>477062</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1274926051685877</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1162201042966998</v>
+        <v>0.1160446465690328</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1410882493027887</v>
+        <v>0.1401362348410773</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>282</v>
@@ -5159,19 +5159,19 @@
         <v>313435</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>281705</v>
+        <v>276510</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>354213</v>
+        <v>352140</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08867774757241841</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07970053836099905</v>
+        <v>0.07823101243722348</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1002147590121292</v>
+        <v>0.09962820604543704</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>683</v>
@@ -5180,19 +5180,19 @@
         <v>747455</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>694694</v>
+        <v>695826</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>804477</v>
+        <v>802125</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.107720842793948</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1001171041711285</v>
+        <v>0.1002802433351056</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1159386947773887</v>
+        <v>0.1155996733574681</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>356121</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>324112</v>
+        <v>324780</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>387907</v>
+        <v>386542</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3160280017403915</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2876229905381343</v>
+        <v>0.288215599761708</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3442354610232464</v>
+        <v>0.343024234862512</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>697</v>
@@ -5545,19 +5545,19 @@
         <v>747086</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>711160</v>
+        <v>712234</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>782980</v>
+        <v>780405</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5941884181239387</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5656148184396218</v>
+        <v>0.5664687702714261</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6227361721999947</v>
+        <v>0.620688619158049</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1033</v>
@@ -5566,19 +5566,19 @@
         <v>1103207</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1052393</v>
+        <v>1052079</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1153924</v>
+        <v>1150030</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4627183439298929</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4414054624620523</v>
+        <v>0.4412735350659526</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4839905657872316</v>
+        <v>0.482357321996279</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>441010</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>410464</v>
+        <v>405838</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>475297</v>
+        <v>476172</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3913599016024548</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3642530568251696</v>
+        <v>0.360147463233025</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4217872209270995</v>
+        <v>0.4225632006823575</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>306</v>
@@ -5616,19 +5616,19 @@
         <v>316268</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>284006</v>
+        <v>285034</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>346314</v>
+        <v>345321</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2515412938920326</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2258814481967478</v>
+        <v>0.2266990801837535</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2754377504372618</v>
+        <v>0.2746480089910681</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>726</v>
@@ -5637,19 +5637,19 @@
         <v>757278</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>711742</v>
+        <v>717305</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>804092</v>
+        <v>808091</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3176253290268198</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2985262252182792</v>
+        <v>0.3008593817867591</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3372604129313782</v>
+        <v>0.3389378362811602</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>192891</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>168591</v>
+        <v>168997</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>220325</v>
+        <v>223537</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.171175190406198</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1496102799999862</v>
+        <v>0.1499713044525338</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1955203654580737</v>
+        <v>0.1983705148180957</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>50</v>
@@ -5687,19 +5687,19 @@
         <v>54649</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>41483</v>
+        <v>40741</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>72665</v>
+        <v>70760</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04346458396179</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03299309574128349</v>
+        <v>0.03240282740014117</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05779353231813609</v>
+        <v>0.05627851361167104</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>231</v>
@@ -5708,19 +5708,19 @@
         <v>247540</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>221325</v>
+        <v>216998</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>278926</v>
+        <v>278061</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.103825878796284</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09283033981542758</v>
+        <v>0.09101571665349772</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1169899204173824</v>
+        <v>0.1166270713309387</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>84142</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67609</v>
+        <v>68394</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103896</v>
+        <v>105123</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07466940515752385</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05999753979328461</v>
+        <v>0.06069392975350914</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09219916784342404</v>
+        <v>0.09328820409594096</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>88</v>
@@ -5758,19 +5758,19 @@
         <v>93946</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76075</v>
+        <v>76560</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>114937</v>
+        <v>113599</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07471892009621006</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06050559019147927</v>
+        <v>0.06089165487785148</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0914144078959461</v>
+        <v>0.0903501858317651</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>167</v>
@@ -5779,19 +5779,19 @@
         <v>178088</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>153095</v>
+        <v>149356</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>204997</v>
+        <v>203225</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07469551729595751</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06421261016178353</v>
+        <v>0.06264428989068037</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08598198996848024</v>
+        <v>0.08523879413237215</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>52701</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>39402</v>
+        <v>38986</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>67791</v>
+        <v>68088</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0467675010934319</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03496592107236255</v>
+        <v>0.03459667231781134</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06015869278813415</v>
+        <v>0.06042255596969929</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>45</v>
@@ -5829,19 +5829,19 @@
         <v>45373</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32701</v>
+        <v>32471</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>59417</v>
+        <v>58950</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0360867839260287</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02600830675413517</v>
+        <v>0.02582573252861311</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04725652495851406</v>
+        <v>0.0468852495949795</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>94</v>
@@ -5850,19 +5850,19 @@
         <v>98073</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>80944</v>
+        <v>79978</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>119333</v>
+        <v>119432</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04113493095104578</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03395042714552388</v>
+        <v>0.03354509514941157</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05005196840313696</v>
+        <v>0.0500931848104234</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>254113</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>228237</v>
+        <v>228328</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>280166</v>
+        <v>282671</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2804986350877933</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2519360426149083</v>
+        <v>0.2520366469812768</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.309256668336683</v>
+        <v>0.3120223089143451</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>497</v>
@@ -5975,19 +5975,19 @@
         <v>534166</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>500046</v>
+        <v>501693</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>564750</v>
+        <v>564936</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5323346674823678</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4983319743252245</v>
+        <v>0.4999731429768883</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5628138916469253</v>
+        <v>0.5629994372913962</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>746</v>
@@ -5996,19 +5996,19 @@
         <v>788279</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>743175</v>
+        <v>745460</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>830544</v>
+        <v>829664</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4128470872946285</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3892249548668551</v>
+        <v>0.3904215730315985</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4349830358936601</v>
+        <v>0.4345218593925773</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>325364</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>297629</v>
+        <v>297432</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>352939</v>
+        <v>356180</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3591486026153069</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3285332696078057</v>
+        <v>0.3283155279811979</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3895862499174199</v>
+        <v>0.3931638485472759</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>227</v>
@@ -6046,19 +6046,19 @@
         <v>235133</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>207851</v>
+        <v>208609</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>262167</v>
+        <v>264144</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2343267619061478</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2071380768426918</v>
+        <v>0.2078942172738629</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2612677583502989</v>
+        <v>0.2632389075331604</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>541</v>
@@ -6067,19 +6067,19 @@
         <v>560497</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>521272</v>
+        <v>520243</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>600077</v>
+        <v>602536</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.293550454239216</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2730070352907386</v>
+        <v>0.272467950287699</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3142798502823839</v>
+        <v>0.3155677695261103</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>140364</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>119049</v>
+        <v>118673</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>161209</v>
+        <v>161033</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1549384387138672</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1314104353634716</v>
+        <v>0.1309955890149767</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.177948621902443</v>
+        <v>0.1777539599420151</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>47</v>
@@ -6117,19 +6117,19 @@
         <v>49497</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36476</v>
+        <v>36955</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>64860</v>
+        <v>65014</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04932688037887933</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03635112851085002</v>
+        <v>0.03682791938677479</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06463763536786436</v>
+        <v>0.06479098852572239</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>186</v>
@@ -6138,19 +6138,19 @@
         <v>189860</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>164420</v>
+        <v>163878</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>216933</v>
+        <v>215603</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09943595105202353</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08611221323818914</v>
+        <v>0.08582837865025755</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.113614887497619</v>
+        <v>0.1129182730433909</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>96455</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78365</v>
+        <v>79038</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>115664</v>
+        <v>114972</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1064706570477378</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08650244127192264</v>
+        <v>0.08724505659461949</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1276735085041559</v>
+        <v>0.126910349912542</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>112</v>
@@ -6188,19 +6188,19 @@
         <v>118952</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>99483</v>
+        <v>99997</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>141591</v>
+        <v>143491</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1185439631606447</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09914197346376268</v>
+        <v>0.09965399619934404</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1411053066178586</v>
+        <v>0.1429990358559117</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>205</v>
@@ -6209,19 +6209,19 @@
         <v>215407</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>188666</v>
+        <v>190235</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>244699</v>
+        <v>248220</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1128155925276575</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09881046109381952</v>
+        <v>0.09963238401611982</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.128156994874922</v>
+        <v>0.1300007757729529</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>89636</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>72639</v>
+        <v>71884</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>108775</v>
+        <v>109411</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09894366653529477</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08018184458740941</v>
+        <v>0.07934854580817217</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1200698007105409</v>
+        <v>0.1207719575848225</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -6259,19 +6259,19 @@
         <v>65693</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51112</v>
+        <v>52054</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>83419</v>
+        <v>82604</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06546772707196036</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05093674541406298</v>
+        <v>0.05187560207177903</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08313305641657194</v>
+        <v>0.08232073001808568</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>149</v>
@@ -6280,19 +6280,19 @@
         <v>155329</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>132003</v>
+        <v>133341</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>181046</v>
+        <v>180616</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08135091488647443</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06913404973677022</v>
+        <v>0.06983511999289861</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09481956794224282</v>
+        <v>0.09459434285213278</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>182669</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>161187</v>
+        <v>160647</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>207039</v>
+        <v>207270</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2227012566306594</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1965112821258607</v>
+        <v>0.195853059873168</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2524118169578576</v>
+        <v>0.2526936170070156</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>302</v>
@@ -6405,19 +6405,19 @@
         <v>329707</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>302124</v>
+        <v>302871</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>358507</v>
+        <v>357061</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4319004809298803</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3957685306249817</v>
+        <v>0.39674708286981</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4696268119693692</v>
+        <v>0.4677326775344408</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>478</v>
@@ -6426,19 +6426,19 @@
         <v>512376</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>475473</v>
+        <v>476592</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>551558</v>
+        <v>550049</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3235455159992756</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3002428822960458</v>
+        <v>0.3009495517063401</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.348287306470563</v>
+        <v>0.347334760899263</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>251289</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>222974</v>
+        <v>226611</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>276308</v>
+        <v>279461</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3063597695817151</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2718390024133592</v>
+        <v>0.2762734985862348</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3368611144897103</v>
+        <v>0.3407049771294881</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>166</v>
@@ -6476,19 +6476,19 @@
         <v>172329</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>150597</v>
+        <v>150989</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>198647</v>
+        <v>195286</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2257426337039634</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.197274645643651</v>
+        <v>0.1977891700245034</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2602176456205169</v>
+        <v>0.2558153847896995</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>411</v>
@@ -6497,19 +6497,19 @@
         <v>423618</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>389777</v>
+        <v>388074</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>458517</v>
+        <v>461678</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2674983665949487</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.246129102981265</v>
+        <v>0.2450538863250119</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2895359806507828</v>
+        <v>0.2915316914967612</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>132499</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>112228</v>
+        <v>112046</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>155655</v>
+        <v>155482</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1615366991259763</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1368226199670669</v>
+        <v>0.1366016080921486</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1897673526351102</v>
+        <v>0.1895563463150138</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>32</v>
@@ -6547,19 +6547,19 @@
         <v>34574</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>24223</v>
+        <v>23888</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>49210</v>
+        <v>49032</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04529017760534426</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03173083604981176</v>
+        <v>0.03129242276227726</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06446228959712974</v>
+        <v>0.06423015668674177</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>158</v>
@@ -6568,19 +6568,19 @@
         <v>167073</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>141246</v>
+        <v>143578</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>190590</v>
+        <v>193895</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1055001894008793</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08919161782742077</v>
+        <v>0.09066387575033852</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1203502745352983</v>
+        <v>0.1224371614111782</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>116050</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>96301</v>
+        <v>96136</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>138468</v>
+        <v>136527</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1414825510299935</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1174055497999298</v>
+        <v>0.1172039841284592</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1688132785865612</v>
+        <v>0.166446871042668</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>97</v>
@@ -6618,19 +6618,19 @@
         <v>99183</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>82841</v>
+        <v>80390</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>117915</v>
+        <v>119421</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1299249045896034</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1085183399644146</v>
+        <v>0.1053077909047542</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1544634165117522</v>
+        <v>0.1564359613347703</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>206</v>
@@ -6639,19 +6639,19 @@
         <v>215233</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>187948</v>
+        <v>186004</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>242471</v>
+        <v>243114</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1359112000881831</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1186818134534521</v>
+        <v>0.1174544490178399</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1531108573560161</v>
+        <v>0.1535171076386036</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>137735</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>116018</v>
+        <v>115725</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>159592</v>
+        <v>161584</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1679197236316558</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1414439499290048</v>
+        <v>0.1410869249833745</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.194567250866265</v>
+        <v>0.1969958884812202</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>124</v>
@@ -6689,19 +6689,19 @@
         <v>127594</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>107982</v>
+        <v>107336</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>148251</v>
+        <v>151246</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1671418031712086</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.141451016552871</v>
+        <v>0.140605142480323</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.194201615371099</v>
+        <v>0.1981251975244309</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>252</v>
@@ -6710,19 +6710,19 @@
         <v>265329</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>237124</v>
+        <v>234908</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>297401</v>
+        <v>298446</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1675447279167134</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1497349095479529</v>
+        <v>0.1483354895868836</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1877972377613108</v>
+        <v>0.1884572490558531</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>106649</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>90053</v>
+        <v>87937</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>127457</v>
+        <v>126648</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2109287995335355</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1781053861181969</v>
+        <v>0.1739216354198392</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2520839951361677</v>
+        <v>0.2504822819140786</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>187</v>
@@ -6835,19 +6835,19 @@
         <v>201190</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>179069</v>
+        <v>180203</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>224344</v>
+        <v>224001</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.410844721562109</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3656724237280854</v>
+        <v>0.3679878381803166</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4581268731606046</v>
+        <v>0.4574266110774646</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>287</v>
@@ -6856,19 +6856,19 @@
         <v>307839</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>279484</v>
+        <v>274116</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>338390</v>
+        <v>336344</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3092881574901631</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2808005290768049</v>
+        <v>0.2754066087637251</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3399834762618607</v>
+        <v>0.3379276287909623</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>123845</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>104687</v>
+        <v>105323</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>146051</v>
+        <v>145971</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2449392137570329</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2070488110221265</v>
+        <v>0.208307016949714</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2888583901698313</v>
+        <v>0.2886999307397287</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>94</v>
@@ -6906,19 +6906,19 @@
         <v>97105</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>80274</v>
+        <v>80706</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>114660</v>
+        <v>116030</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1982957165613087</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1639256102730107</v>
+        <v>0.1648078059291069</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2341445356941845</v>
+        <v>0.2369421835066715</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>211</v>
@@ -6927,19 +6927,19 @@
         <v>220950</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>194999</v>
+        <v>196985</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>248098</v>
+        <v>251363</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2219904441419371</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1959171643358643</v>
+        <v>0.1979127703382226</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2492662433782236</v>
+        <v>0.2525465201002848</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>52042</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>40212</v>
+        <v>40907</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>66273</v>
+        <v>66223</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1029272967994308</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07953039485111703</v>
+        <v>0.08090568289796672</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1310740786214334</v>
+        <v>0.13097456249133</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -6977,19 +6977,19 @@
         <v>24445</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15187</v>
+        <v>15830</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>36109</v>
+        <v>37230</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04991855720637904</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03101354820456098</v>
+        <v>0.0323256925949313</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07373730888080153</v>
+        <v>0.07602739597045546</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>74</v>
@@ -6998,19 +6998,19 @@
         <v>76487</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>61174</v>
+        <v>61496</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>96760</v>
+        <v>96362</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07684680486283843</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06146199882986381</v>
+        <v>0.06178540015596321</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09721606113671465</v>
+        <v>0.0968160814165946</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>78752</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>62006</v>
+        <v>63069</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>96885</v>
+        <v>97916</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1557554143649936</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1226353394937698</v>
+        <v>0.1247368042155253</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1916173149595703</v>
+        <v>0.1936563016892067</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>54</v>
@@ -7048,19 +7048,19 @@
         <v>58562</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44532</v>
+        <v>43525</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>73340</v>
+        <v>73542</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1195888809489028</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09093766952269394</v>
+        <v>0.08888045086007941</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1497663595937689</v>
+        <v>0.1501788608427079</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>125</v>
@@ -7069,19 +7069,19 @@
         <v>137315</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>115815</v>
+        <v>115688</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>161851</v>
+        <v>162253</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1379613488887322</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1163599194073234</v>
+        <v>0.1162324277366625</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1626128897471116</v>
+        <v>0.1630167367419157</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>144327</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>124199</v>
+        <v>124167</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>164735</v>
+        <v>164074</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2854492755450073</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2456403662390385</v>
+        <v>0.2455761532381709</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3258115171778634</v>
+        <v>0.3245037396955887</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>98</v>
@@ -7119,19 +7119,19 @@
         <v>108396</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>90425</v>
+        <v>89039</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>128537</v>
+        <v>127562</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2213521237213004</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1846540154239212</v>
+        <v>0.1818246701532923</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2624823085037261</v>
+        <v>0.2604916220196744</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>228</v>
@@ -7140,19 +7140,19 @@
         <v>252723</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>225742</v>
+        <v>224707</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>282807</v>
+        <v>282844</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2539132446163292</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2268054945661037</v>
+        <v>0.2257654754511398</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2841391005775767</v>
+        <v>0.2841761334942814</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>899551</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>847011</v>
+        <v>849827</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>949259</v>
+        <v>951921</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2678308811573958</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2521877206762367</v>
+        <v>0.2530261802541354</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2826306377235797</v>
+        <v>0.2834233535674462</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1683</v>
@@ -7265,19 +7265,19 @@
         <v>1812149</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1748799</v>
+        <v>1753046</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1874059</v>
+        <v>1874040</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5157166056444056</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4976878958769118</v>
+        <v>0.4988966934230554</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5333354667164919</v>
+        <v>0.5333300224575622</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2544</v>
@@ -7286,19 +7286,19 @@
         <v>2711700</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2630287</v>
+        <v>2636045</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2792569</v>
+        <v>2794438</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3945725732626996</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3827263749157172</v>
+        <v>0.3835641374997796</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4063395582182791</v>
+        <v>0.4066116075108607</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>1141508</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1088471</v>
+        <v>1083656</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1198442</v>
+        <v>1195553</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3398706889924036</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3240795446070342</v>
+        <v>0.3226459654362</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3568221864860486</v>
+        <v>0.3559618052312684</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>793</v>
@@ -7336,19 +7336,19 @@
         <v>820835</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>775049</v>
+        <v>774972</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>872506</v>
+        <v>873024</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.233600176881084</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2205700014922504</v>
+        <v>0.2205480923608238</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2483050321216581</v>
+        <v>0.2484524600433673</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1889</v>
@@ -7357,19 +7357,19 @@
         <v>1962343</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1883223</v>
+        <v>1886761</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2041176</v>
+        <v>2035889</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2855355530996078</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2740230547094393</v>
+        <v>0.2745377688218479</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2970062945989531</v>
+        <v>0.2962370311480603</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>517796</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>471967</v>
+        <v>472414</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>560795</v>
+        <v>556902</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1541676439963632</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1405227343070567</v>
+        <v>0.1406558634051753</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.166970118070383</v>
+        <v>0.1658110914770676</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>151</v>
@@ -7407,19 +7407,19 @@
         <v>163164</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>140830</v>
+        <v>138025</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>193173</v>
+        <v>188625</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04643471749330202</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04007858099432214</v>
+        <v>0.03928038793336214</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05497474652101001</v>
+        <v>0.05368035676182036</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>649</v>
@@ -7428,19 +7428,19 @@
         <v>680960</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>626874</v>
+        <v>629706</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>726697</v>
+        <v>733450</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09908478906911289</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09121490645499288</v>
+        <v>0.09162694463107539</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1057398120972164</v>
+        <v>0.1067224652439459</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>375400</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>338297</v>
+        <v>341390</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>413848</v>
+        <v>415740</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1117708843093675</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.10072401223444</v>
+        <v>0.1016448476224504</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1232183280833359</v>
+        <v>0.1237816979264091</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>351</v>
@@ -7478,19 +7478,19 @@
         <v>370643</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>333498</v>
+        <v>334310</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>406322</v>
+        <v>410436</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1054806568613843</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09490977137784348</v>
+        <v>0.09514088564151431</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1156344399900679</v>
+        <v>0.1168054302820342</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>703</v>
@@ -7499,19 +7499,19 @@
         <v>746043</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>697194</v>
+        <v>698246</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>800656</v>
+        <v>803940</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1085547488415649</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1014469076308035</v>
+        <v>0.1016000287805125</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1165014367356113</v>
+        <v>0.1169792901460915</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>424399</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>385282</v>
+        <v>390497</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>462136</v>
+        <v>466154</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1263599015444699</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1147132701870959</v>
+        <v>0.1162659183488091</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1375956440316658</v>
+        <v>0.1387918569374739</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>332</v>
@@ -7549,19 +7549,19 @@
         <v>347055</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>311275</v>
+        <v>313334</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>384517</v>
+        <v>385561</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09876784311982408</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0885851830325831</v>
+        <v>0.08917135672363588</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1094292038724048</v>
+        <v>0.1097261029231285</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>723</v>
@@ -7570,19 +7570,19 @@
         <v>771454</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>715583</v>
+        <v>716725</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>827099</v>
+        <v>824581</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1122523357270149</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1041226481215126</v>
+        <v>0.1042888568246227</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1203490414184298</v>
+        <v>0.1199826467479158</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>173672</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>152009</v>
+        <v>152234</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>196492</v>
+        <v>196371</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3531024795854127</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3090577457905258</v>
+        <v>0.3095157603819304</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3995003862439054</v>
+        <v>0.3992529606809384</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>387</v>
@@ -7935,19 +7935,19 @@
         <v>277886</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>255073</v>
+        <v>254470</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>299909</v>
+        <v>300658</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.455482592297616</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4180886549300323</v>
+        <v>0.4171006228260133</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4915800577249798</v>
+        <v>0.4928080167503371</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>553</v>
@@ -7956,19 +7956,19 @@
         <v>451558</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>421853</v>
+        <v>418943</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>490042</v>
+        <v>488401</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4097856596663486</v>
+        <v>0.4097856596663485</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.382828669795966</v>
+        <v>0.3801884034858218</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4447103865209789</v>
+        <v>0.4432206850678718</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>193373</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>170393</v>
+        <v>170353</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>217177</v>
+        <v>220343</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3931586251784144</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3464372559957702</v>
+        <v>0.3463543795122303</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4415554241076938</v>
+        <v>0.4479928271130862</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>306</v>
@@ -8006,19 +8006,19 @@
         <v>224751</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>203856</v>
+        <v>201842</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>248005</v>
+        <v>246682</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3683891322365553</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3341400140834285</v>
+        <v>0.3308392630550842</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.406504017135458</v>
+        <v>0.4043365575243067</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>477</v>
@@ -8027,19 +8027,19 @@
         <v>418124</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>385232</v>
+        <v>386620</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>449583</v>
+        <v>450693</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3794448912144401</v>
+        <v>0.37944489121444</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3495955837378917</v>
+        <v>0.3508553887921225</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4079938171678081</v>
+        <v>0.4090009849825868</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>74691</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>58385</v>
+        <v>57893</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>93839</v>
+        <v>93700</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1518578612782315</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1187070363205086</v>
+        <v>0.117705013825322</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1907896580062449</v>
+        <v>0.1905065818205136</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>70</v>
@@ -8077,19 +8077,19 @@
         <v>50235</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>39230</v>
+        <v>38654</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>63439</v>
+        <v>64366</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08233970863649753</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06430218675232774</v>
+        <v>0.0633584114100606</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1039828532998054</v>
+        <v>0.1055024464264495</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>137</v>
@@ -8098,19 +8098,19 @@
         <v>124925</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>105037</v>
+        <v>105181</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>151098</v>
+        <v>148822</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1133688436292434</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09532003009752466</v>
+        <v>0.09545113766629859</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1371206019048776</v>
+        <v>0.1350550922460018</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>21296</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12467</v>
+        <v>12743</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33429</v>
+        <v>35318</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04329801525470924</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02534758269719936</v>
+        <v>0.02590767793632828</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06796556129232185</v>
+        <v>0.07180645722463581</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -8148,19 +8148,19 @@
         <v>32772</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25203</v>
+        <v>23677</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44507</v>
+        <v>43636</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05371698389101356</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04131070205462235</v>
+        <v>0.03880826882758284</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07295130330016454</v>
+        <v>0.07152307171485191</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>64</v>
@@ -8169,19 +8169,19 @@
         <v>54068</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41868</v>
+        <v>41358</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>71710</v>
+        <v>70626</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04906652106920679</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03799469418120661</v>
+        <v>0.03753248992676668</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06507654583778621</v>
+        <v>0.06409290401654433</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>28814</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19172</v>
+        <v>18303</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>43227</v>
+        <v>41927</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.058583018703232</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0389802094522864</v>
+        <v>0.0372119868522567</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08788837625021528</v>
+        <v>0.08524425302152856</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>36</v>
@@ -8219,19 +8219,19 @@
         <v>24447</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17059</v>
+        <v>16670</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>33769</v>
+        <v>33257</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04007158293831753</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02796127825416271</v>
+        <v>0.02732392750042618</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05535012746774729</v>
+        <v>0.054511409750133</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>62</v>
@@ -8240,19 +8240,19 @@
         <v>53261</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>40438</v>
+        <v>39634</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>70442</v>
+        <v>69569</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.04833408442076124</v>
+        <v>0.04833408442076122</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0366969258203651</v>
+        <v>0.03596716199778426</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06392543548409035</v>
+        <v>0.06313327647167974</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>195362</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>169928</v>
+        <v>170359</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>226320</v>
+        <v>229320</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2049183847180907</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1782395857811627</v>
+        <v>0.1786916913257044</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.237390039669901</v>
+        <v>0.2405371310973573</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>492</v>
@@ -8365,19 +8365,19 @@
         <v>314727</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>289725</v>
+        <v>286075</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>340382</v>
+        <v>343074</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2859554448742749</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2632383648753127</v>
+        <v>0.2599220283160019</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.309264612975452</v>
+        <v>0.3117102746325756</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>682</v>
@@ -8386,19 +8386,19 @@
         <v>510090</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>476424</v>
+        <v>477682</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>554241</v>
+        <v>551059</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2483417196651762</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2319512627391429</v>
+        <v>0.2325635506965051</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2698369556930941</v>
+        <v>0.2682879633721483</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>418060</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>382095</v>
+        <v>384517</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>451400</v>
+        <v>454979</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4385091716270861</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4007848741625932</v>
+        <v>0.40332619938333</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4734803342164345</v>
+        <v>0.4772340364743882</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>609</v>
@@ -8436,19 +8436,19 @@
         <v>434463</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>404599</v>
+        <v>407879</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>460171</v>
+        <v>466302</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.394744691761881</v>
+        <v>0.3947446917618812</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3676107126110962</v>
+        <v>0.3705914556117774</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4181023758858512</v>
+        <v>0.423673012731922</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1003</v>
@@ -8457,19 +8457,19 @@
         <v>852522</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>807340</v>
+        <v>810248</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>901789</v>
+        <v>899054</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4150581769302265</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3930605501425543</v>
+        <v>0.3944766012856762</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4390439973848969</v>
+        <v>0.43771250929332</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>151663</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>130204</v>
+        <v>129038</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>180291</v>
+        <v>176365</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1590811152097144</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1365729353260473</v>
+        <v>0.1353497417841126</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1891095929891931</v>
+        <v>0.1849918412130595</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>206</v>
@@ -8507,19 +8507,19 @@
         <v>140882</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>124655</v>
+        <v>122061</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>165437</v>
+        <v>159954</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.128003148128809</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1132591560750462</v>
+        <v>0.1109020855058351</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1503126975676634</v>
+        <v>0.1453314371930249</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>357</v>
@@ -8528,19 +8528,19 @@
         <v>292545</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>261375</v>
+        <v>259571</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>325025</v>
+        <v>324722</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1424281298789569</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.127252714752932</v>
+        <v>0.1263744510692144</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1582414059303376</v>
+        <v>0.1580937314324009</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>117234</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>96413</v>
+        <v>93717</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>139690</v>
+        <v>138635</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1229680090979171</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1011285699159625</v>
+        <v>0.09830169205112405</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1465228215937857</v>
+        <v>0.1454165277103169</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>167</v>
@@ -8578,19 +8578,19 @@
         <v>123664</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>105739</v>
+        <v>104830</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>142547</v>
+        <v>142994</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1123584802047601</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09607209188045103</v>
+        <v>0.09524650152930529</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1295157753095174</v>
+        <v>0.1299220370829719</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>274</v>
@@ -8599,19 +8599,19 @@
         <v>240897</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>210012</v>
+        <v>214118</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>272763</v>
+        <v>270013</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1172829419709703</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1022460165701735</v>
+        <v>0.1042450330848935</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.132797344010987</v>
+        <v>0.1314581340970952</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>71048</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>53166</v>
+        <v>54543</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93047</v>
+        <v>91981</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07452331934719157</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05576709232957067</v>
+        <v>0.05721062652335481</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09759835344289607</v>
+        <v>0.09648057012248921</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>112</v>
@@ -8649,19 +8649,19 @@
         <v>86881</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>71851</v>
+        <v>72163</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>105111</v>
+        <v>104345</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.07893823503027481</v>
+        <v>0.07893823503027479</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06528276465146936</v>
+        <v>0.06556632923916372</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09550195666169559</v>
+        <v>0.09480630821315272</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>173</v>
@@ -8670,19 +8670,19 @@
         <v>157929</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>132326</v>
+        <v>134817</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>184819</v>
+        <v>185429</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.07688903155467021</v>
+        <v>0.0768890315546702</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06442399786413285</v>
+        <v>0.06563696579580219</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08998095544595759</v>
+        <v>0.09027760055044384</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>109314</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>89276</v>
+        <v>90387</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>134362</v>
+        <v>132633</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1056601708197847</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08629222116658153</v>
+        <v>0.08736610656318949</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1298711579512395</v>
+        <v>0.1281999112874867</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>237</v>
@@ -8795,19 +8795,19 @@
         <v>140487</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>123067</v>
+        <v>124202</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>159444</v>
+        <v>160152</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.136795659620498</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1198336033879268</v>
+        <v>0.1209382047468523</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1552542786218202</v>
+        <v>0.1559442679040125</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>343</v>
@@ -8816,19 +8816,19 @@
         <v>249801</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>222753</v>
+        <v>221272</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>279347</v>
+        <v>277611</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1211705440823853</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1080501923478961</v>
+        <v>0.1073320463264588</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1355024179060837</v>
+        <v>0.1346600223083753</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>336544</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>304475</v>
+        <v>304964</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>370900</v>
+        <v>369461</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3252947406367385</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2942974192770244</v>
+        <v>0.294769800722276</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3585017935752716</v>
+        <v>0.3571116529501562</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>493</v>
@@ -8866,19 +8866,19 @@
         <v>336422</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>307870</v>
+        <v>311153</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>363368</v>
+        <v>363080</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3275821476643939</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2997806652149476</v>
+        <v>0.3029773680129907</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3538203239795995</v>
+        <v>0.3535402662209715</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>840</v>
@@ -8887,19 +8887,19 @@
         <v>672966</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>633422</v>
+        <v>632087</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>721671</v>
+        <v>712327</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3264342293092792</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3072527197092863</v>
+        <v>0.3066051868810558</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3500595458183507</v>
+        <v>0.3455271499284214</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>187868</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>162297</v>
+        <v>163359</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>216540</v>
+        <v>217359</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1815885085912084</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1568723425213687</v>
+        <v>0.1578986485761097</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2093015992885512</v>
+        <v>0.2100930769395611</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>187</v>
@@ -8937,19 +8937,19 @@
         <v>131823</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>113369</v>
+        <v>113349</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>151763</v>
+        <v>152877</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.1283597130899606</v>
+        <v>0.1283597130899605</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1103906000554773</v>
+        <v>0.1103703043991762</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1477754297655886</v>
+        <v>0.1488605789880159</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>372</v>
@@ -8958,19 +8958,19 @@
         <v>319692</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>288503</v>
+        <v>288205</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>354576</v>
+        <v>358428</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1550721917340253</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1399434831895893</v>
+        <v>0.1397990042472261</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1719933302985075</v>
+        <v>0.1738621311463683</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>191639</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>166251</v>
+        <v>164178</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>220657</v>
+        <v>220974</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1852335419668687</v>
+        <v>0.1852335419668686</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1606934647237381</v>
+        <v>0.1586897699453013</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2132814249886861</v>
+        <v>0.2135872609452736</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>271</v>
@@ -9008,19 +9008,19 @@
         <v>198784</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>178546</v>
+        <v>178449</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>224716</v>
+        <v>221493</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1935607381045266</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1738549786312763</v>
+        <v>0.1737602908954622</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2188119276817706</v>
+        <v>0.2156730301195208</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>454</v>
@@ -9029,19 +9029,19 @@
         <v>390423</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>357534</v>
+        <v>356527</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>427223</v>
+        <v>425453</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1893817961071089</v>
+        <v>0.1893817961071088</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1734285297084229</v>
+        <v>0.1729400834977018</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.207232509453477</v>
+        <v>0.2063738818095956</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>209216</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>181689</v>
+        <v>180617</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>237678</v>
+        <v>240259</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2022230379853996</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1756160481174982</v>
+        <v>0.1745799622318827</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.229733584306564</v>
+        <v>0.2322280142706155</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>300</v>
@@ -9079,19 +9079,19 @@
         <v>219468</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>198060</v>
+        <v>196005</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>244784</v>
+        <v>241291</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.213701741520621</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1928556873529593</v>
+        <v>0.1908549942287502</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.23835229484421</v>
+        <v>0.2349509968055364</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>495</v>
@@ -9100,19 +9100,19 @@
         <v>428685</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>391156</v>
+        <v>392267</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>468213</v>
+        <v>466446</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2079412387672013</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1897371634510682</v>
+        <v>0.1902763980616506</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2271154203657427</v>
+        <v>0.2262580831335697</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>85219</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>68076</v>
+        <v>65151</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>107970</v>
+        <v>110083</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08980697311981538</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07174085292607077</v>
+        <v>0.06865808544928385</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1137830320442132</v>
+        <v>0.1160100994372813</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>202</v>
@@ -9225,19 +9225,19 @@
         <v>129070</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>110897</v>
+        <v>110316</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>150215</v>
+        <v>149036</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1464407321456192</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1258214766501385</v>
+        <v>0.12516271169404</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1704312066384163</v>
+        <v>0.169094192452528</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>277</v>
@@ -9246,19 +9246,19 @@
         <v>214289</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>186802</v>
+        <v>187144</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>243069</v>
+        <v>245495</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1170790634116229</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1020613581197797</v>
+        <v>0.1022480988036733</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1328029819435061</v>
+        <v>0.1341288566743284</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>241476</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>212760</v>
+        <v>212929</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>271773</v>
+        <v>271550</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2544760637006009</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2242148038152263</v>
+        <v>0.2243922347018817</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2864044279756504</v>
+        <v>0.2861698433362298</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>307</v>
@@ -9296,19 +9296,19 @@
         <v>208982</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>187143</v>
+        <v>187127</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>231618</v>
+        <v>235329</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2371075882600115</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2123290629233894</v>
+        <v>0.21231079157865</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.262789585728832</v>
+        <v>0.2669999438800766</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>540</v>
@@ -9317,19 +9317,19 @@
         <v>450458</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>414554</v>
+        <v>417423</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>486966</v>
+        <v>491008</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.246112242569975</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2264956860305705</v>
+        <v>0.228063424848053</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2660589441777951</v>
+        <v>0.2682672399147781</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>114913</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>95843</v>
+        <v>94169</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>142156</v>
+        <v>138780</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1210997279012462</v>
+        <v>0.1210997279012461</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1010034312617252</v>
+        <v>0.0992387665144009</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1498093233432608</v>
+        <v>0.146251108628539</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>105</v>
@@ -9367,19 +9367,19 @@
         <v>70212</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>56424</v>
+        <v>55446</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>87268</v>
+        <v>87884</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.07966161755177219</v>
+        <v>0.0796616175517722</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06401749999979295</v>
+        <v>0.06290788487213206</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09901236085595884</v>
+        <v>0.09971139199291053</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>218</v>
@@ -9388,19 +9388,19 @@
         <v>185125</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>159999</v>
+        <v>160730</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>213887</v>
+        <v>214597</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1011451300357251</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08741687726994203</v>
+        <v>0.08781630000414843</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1168591903529299</v>
+        <v>0.117247489161346</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>190850</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>165234</v>
+        <v>162954</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>217620</v>
+        <v>217915</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2011245758069691</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1741300056238081</v>
+        <v>0.1717274894752389</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2293361285944286</v>
+        <v>0.2296467153532957</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>251</v>
@@ -9438,19 +9438,19 @@
         <v>172516</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>153665</v>
+        <v>152079</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>195002</v>
+        <v>194371</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1957342231114012</v>
+        <v>0.1957342231114013</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1743461895186507</v>
+        <v>0.1725465930577905</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.221245759726858</v>
+        <v>0.2205298833070929</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>439</v>
@@ -9459,19 +9459,19 @@
         <v>363366</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>329812</v>
+        <v>328234</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>397581</v>
+        <v>399088</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1985288416027247</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1801964504732308</v>
+        <v>0.17933407436611</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2172224734530546</v>
+        <v>0.218045598432203</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>316456</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>284326</v>
+        <v>288955</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>348734</v>
+        <v>355134</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3334926594713684</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2996336831644848</v>
+        <v>0.3045120324624951</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3675093175376271</v>
+        <v>0.3742532084330042</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>413</v>
@@ -9509,19 +9509,19 @@
         <v>300600</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>276807</v>
+        <v>275006</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>328402</v>
+        <v>328462</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3410558389311958</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.314060499938905</v>
+        <v>0.3120173468654678</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3725991347600749</v>
+        <v>0.3726669206362033</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>723</v>
@@ -9530,19 +9530,19 @@
         <v>617056</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>579762</v>
+        <v>576088</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>658191</v>
+        <v>657957</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3371347223799522</v>
+        <v>0.3371347223799523</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3167590479609079</v>
+        <v>0.3147515230125184</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3596093648764028</v>
+        <v>0.3594817869273379</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>563567</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>518413</v>
+        <v>516407</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>614903</v>
+        <v>618567</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.1643672582695237</v>
+        <v>0.1643672582695238</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1511978198917284</v>
+        <v>0.1506127110548117</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1793395972478083</v>
+        <v>0.1804083695225049</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1318</v>
@@ -9655,19 +9655,19 @@
         <v>862171</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>818185</v>
+        <v>819161</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>905763</v>
+        <v>906367</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2382296236666935</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2260756733446264</v>
+        <v>0.2263454426187461</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2502748143668858</v>
+        <v>0.2504417282334943</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1855</v>
@@ -9676,19 +9676,19 @@
         <v>1425738</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1351871</v>
+        <v>1357516</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1488462</v>
+        <v>1492958</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.2022960026070575</v>
+        <v>0.2022960026070574</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1918152076800833</v>
+        <v>0.1926161388280862</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2111958330452861</v>
+        <v>0.211833780547749</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>1189452</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1125504</v>
+        <v>1129659</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1250165</v>
+        <v>1257566</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3469100512668487</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3282592295351545</v>
+        <v>0.3294709813365259</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.364617148776974</v>
+        <v>0.3667758715798537</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1715</v>
@@ -9726,19 +9726,19 @@
         <v>1204618</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1155288</v>
+        <v>1153504</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1256759</v>
+        <v>1256035</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3328524638016747</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3192218544781936</v>
+        <v>0.3187290304911913</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3472597394977161</v>
+        <v>0.3470596388560104</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2860</v>
@@ -9747,19 +9747,19 @@
         <v>2394070</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2311941</v>
+        <v>2310909</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2472874</v>
+        <v>2467588</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3396914002244392</v>
+        <v>0.3396914002244393</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3280382874982286</v>
+        <v>0.3278918258955447</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3508727556570959</v>
+        <v>0.3501228442405298</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>529134</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>484738</v>
+        <v>485292</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>582216</v>
+        <v>573287</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.154324799251918</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1413763071298643</v>
+        <v>0.1415378862650967</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1698062440895109</v>
+        <v>0.1672020578872231</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>568</v>
@@ -9797,19 +9797,19 @@
         <v>393153</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>361303</v>
+        <v>358041</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>431476</v>
+        <v>428786</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1086335487108554</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09983293161931045</v>
+        <v>0.09893153774234673</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1192227975662991</v>
+        <v>0.1184793315523998</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1084</v>
@@ -9818,19 +9818,19 @@
         <v>922287</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>871278</v>
+        <v>867311</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>978337</v>
+        <v>983072</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1308620824689463</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1236244807158795</v>
+        <v>0.1230615510084579</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1388149154514075</v>
+        <v>0.1394868306364603</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>521018</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>478054</v>
+        <v>474749</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>568802</v>
+        <v>567949</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1519577517296215</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1394270265058339</v>
+        <v>0.1384631008632542</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1658940809226391</v>
+        <v>0.1656453006019492</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>734</v>
@@ -9868,19 +9868,19 @@
         <v>527736</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>486139</v>
+        <v>489664</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>564753</v>
+        <v>565226</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1458207837066273</v>
+        <v>0.1458207837066274</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1343268496990861</v>
+        <v>0.1353009505444916</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1560490688082271</v>
+        <v>0.1561797411675881</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1231</v>
@@ -9889,19 +9889,19 @@
         <v>1048755</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>991676</v>
+        <v>991761</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1109566</v>
+        <v>1114940</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1488063837778895</v>
+        <v>0.1488063837778894</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1407076483301015</v>
+        <v>0.1407196426980588</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1574348383392833</v>
+        <v>0.1581973205874417</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>625533</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>577182</v>
+        <v>579373</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>680158</v>
+        <v>676727</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1824401394820881</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1683381916043465</v>
+        <v>0.1689773037494052</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1983716050370767</v>
+        <v>0.1973710247034166</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>861</v>
@@ -9939,19 +9939,19 @@
         <v>631397</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>590038</v>
+        <v>590619</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>675283</v>
+        <v>677727</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1744635801141491</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1630356533470195</v>
+        <v>0.1631962303461268</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1865899579362346</v>
+        <v>0.1872652403218584</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1453</v>
@@ -9960,19 +9960,19 @@
         <v>1256930</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1196992</v>
+        <v>1192062</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1335790</v>
+        <v>1326298</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1783441309216675</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1698395523551466</v>
+        <v>0.1691400966749327</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.189533524348453</v>
+        <v>0.1881866737941137</v>
       </c>
     </row>
     <row r="33">
